--- a/complexity classes.xlsx
+++ b/complexity classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saroj\Documents\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\610138\Documents\Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A3387-A047-4BA1-9929-50A6F84EEBE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74315D4E-09F3-4323-A943-7D5A67A7AB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4DEDD601-E3CF-43E9-808F-F6DA98D7E564}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Functions</t>
   </si>
@@ -79,6 +79,72 @@
   </si>
   <si>
     <t>O(log n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log n^n</t>
+  </si>
+  <si>
+    <t>O(log n^n)</t>
+  </si>
+  <si>
+    <t>n^k (k&gt;3)</t>
+  </si>
+  <si>
+    <t>O(n^k) (k&gt;3)</t>
+  </si>
+  <si>
+    <t>n^1/k (k&gt;3)</t>
+  </si>
+  <si>
+    <t>O(n^1/k)(k&gt;3)</t>
+  </si>
+  <si>
+    <t>n logn</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>ln n</t>
+  </si>
+  <si>
+    <t>O(ln n)</t>
+  </si>
+  <si>
+    <t>2^n</t>
+  </si>
+  <si>
+    <t>O(2^n)</t>
+  </si>
+  <si>
+    <t>3^n</t>
+  </si>
+  <si>
+    <t>O(3^n)</t>
+  </si>
+  <si>
+    <t>n^n</t>
+  </si>
+  <si>
+    <t>O(n^n)</t>
+  </si>
+  <si>
+    <t>n^1/2 logn</t>
+  </si>
+  <si>
+    <t>O(n^1/2 logn)</t>
+  </si>
+  <si>
+    <t>n^1/3 logn</t>
+  </si>
+  <si>
+    <t>O(n^1/3 logn)</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>O(n!)</t>
   </si>
 </sst>
 </file>
@@ -114,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9B08A5-8B7C-47A5-B36E-7667DC7C44A6}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,60 +519,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
